--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Project-VAL-modeling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1154AF-455F-4177-A7FA-5F3CB105B5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LPBF Ti-6Al-4V Torsion Loadings" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +24,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Fatigue Strength Coefficient (tf)</t>
+  </si>
+  <si>
+    <t>Elastic Modules (G)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +83,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>822452</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF6B0D6-D65E-D335-A4D0-DB6DA40C0278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781176" y="2447925"/>
+          <a:ext cx="7118476" cy="4867275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +396,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="14" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Project-VAL-modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1154AF-455F-4177-A7FA-5F3CB105B5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B069294-F797-402B-A5D4-EF552090D23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="4140" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LPBF Ti-6Al-4V Torsion Loadings" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Fatigue Strength Coefficient (tf)</t>
   </si>
   <si>
     <t>Elastic Modules (G)</t>
+  </si>
+  <si>
+    <t>Yield Strength (ty)</t>
   </si>
 </sst>
 </file>
@@ -95,8 +98,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>822452</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117602</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -399,18 +402,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="15.140625" customWidth="1"/>
+    <col min="1" max="14" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
